--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>incvar I</t>
   </si>
@@ -34,6 +34,9 @@
     <t>rincvar III</t>
   </si>
   <si>
+    <t>rmse</t>
+  </si>
+  <si>
     <t>HHinc_gr=low inc</t>
   </si>
   <si>
@@ -52,10 +55,16 @@
     <t>educ_gr=low educ</t>
   </si>
   <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>rmse</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>3.82***</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
   </si>
   <si>
     <t>0.17***</t>
@@ -67,19 +76,16 @@
     <t>-0.16***</t>
   </si>
   <si>
-    <t>2.14***</t>
-  </si>
-  <si>
-    <t>(0.11)</t>
+    <t>40529</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>3.82***</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
+    <t>1.95***</t>
+  </si>
+  <si>
+    <t>(0.53)</t>
   </si>
   <si>
     <t>0.15***</t>
@@ -106,21 +112,15 @@
     <t>-0.12***</t>
   </si>
   <si>
-    <t>1.69***</t>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>3.10***</t>
   </si>
   <si>
     <t>(0.23)</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>1.95***</t>
-  </si>
-  <si>
-    <t>(0.53)</t>
-  </si>
-  <si>
     <t>0.42***</t>
   </si>
   <si>
@@ -130,13 +130,16 @@
     <t>0.03*</t>
   </si>
   <si>
-    <t>2.95***</t>
+    <t>38163</t>
   </si>
   <si>
     <t>0.03</t>
   </si>
   <si>
-    <t>3.10***</t>
+    <t>0.83*</t>
+  </si>
+  <si>
+    <t>(0.49)</t>
   </si>
   <si>
     <t>0.40***</t>
@@ -157,19 +160,7 @@
     <t>0.07***</t>
   </si>
   <si>
-    <t>2.26***</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
     <t>0.04</t>
-  </si>
-  <si>
-    <t>0.83*</t>
-  </si>
-  <si>
-    <t>(0.49)</t>
   </si>
 </sst>
 </file>
@@ -527,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,51 +549,63 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -610,11 +613,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -631,10 +646,10 @@
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -642,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -651,10 +666,10 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -662,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -671,54 +686,30 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -726,19 +717,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>47</v>
@@ -753,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -762,72 +753,53 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>incvar I</t>
   </si>
@@ -25,13 +25,13 @@
     <t>incvar III</t>
   </si>
   <si>
-    <t>rincvar I</t>
-  </si>
-  <si>
-    <t>rincvar II</t>
-  </si>
-  <si>
-    <t>rincvar III</t>
+    <t>inciqr I</t>
+  </si>
+  <si>
+    <t>inciqr II</t>
+  </si>
+  <si>
+    <t>inciqr III</t>
   </si>
   <si>
     <t>rmse</t>
@@ -40,6 +40,9 @@
     <t>HHinc_gr=low inc</t>
   </si>
   <si>
+    <t>educ_gr=low educ</t>
+  </si>
+  <si>
     <t>age_gr=30-39</t>
   </si>
   <si>
@@ -52,43 +55,46 @@
     <t>age_gr=&gt;57</t>
   </si>
   <si>
-    <t>educ_gr=low educ</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
+    <t>4.02***</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>0.15***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>40529</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>3.82***</t>
   </si>
   <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
     <t>0.17***</t>
   </si>
   <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
     <t>-0.16***</t>
   </si>
   <si>
-    <t>40529</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>1.95***</t>
   </si>
   <si>
     <t>(0.53)</t>
   </si>
   <si>
-    <t>0.15***</t>
+    <t>-0.12***</t>
   </si>
   <si>
     <t>-0.32***</t>
@@ -109,58 +115,49 @@
     <t>(0.04)</t>
   </si>
   <si>
-    <t>-0.12***</t>
-  </si>
-  <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>3.10***</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t>0.42***</t>
+    <t>1.97***</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>0.20***</t>
   </si>
   <si>
     <t>(0.01)</t>
   </si>
   <si>
-    <t>0.03*</t>
-  </si>
-  <si>
-    <t>38163</t>
+    <t>44874</t>
+  </si>
+  <si>
+    <t>1.99***</t>
+  </si>
+  <si>
+    <t>1.05***</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
+  </si>
+  <si>
+    <t>0.19***</t>
+  </si>
+  <si>
+    <t>0.03***</t>
+  </si>
+  <si>
+    <t>-0.24***</t>
+  </si>
+  <si>
+    <t>-0.29***</t>
+  </si>
+  <si>
+    <t>-0.23***</t>
   </si>
   <si>
     <t>0.03</t>
-  </si>
-  <si>
-    <t>0.83*</t>
-  </si>
-  <si>
-    <t>(0.49)</t>
-  </si>
-  <si>
-    <t>0.40***</t>
-  </si>
-  <si>
-    <t>-0.26***</t>
-  </si>
-  <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.47***</t>
-  </si>
-  <si>
-    <t>-0.46***</t>
-  </si>
-  <si>
-    <t>0.07***</t>
-  </si>
-  <si>
-    <t>0.04</t>
   </si>
 </sst>
 </file>
@@ -552,16 +549,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -576,13 +573,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -596,16 +593,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -623,21 +620,27 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -645,11 +648,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -660,16 +669,16 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -677,19 +686,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -697,60 +706,36 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -761,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -784,22 +769,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>incvar I</t>
   </si>
@@ -34,127 +34,151 @@
     <t>inciqr III</t>
   </si>
   <si>
-    <t>rmse</t>
+    <t>exp_vol</t>
+  </si>
+  <si>
+    <t>age_gr=30-39</t>
+  </si>
+  <si>
+    <t>age_gr=40-48</t>
+  </si>
+  <si>
+    <t>age_gr=49-57</t>
+  </si>
+  <si>
+    <t>age_gr=&gt;57</t>
+  </si>
+  <si>
+    <t>educ_gr=low educ</t>
   </si>
   <si>
     <t>HHinc_gr=low inc</t>
   </si>
   <si>
-    <t>educ_gr=low educ</t>
-  </si>
-  <si>
-    <t>age_gr=30-39</t>
-  </si>
-  <si>
-    <t>age_gr=40-48</t>
-  </si>
-  <si>
-    <t>age_gr=49-57</t>
-  </si>
-  <si>
-    <t>age_gr=&gt;57</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>4.02***</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
+    <t>1.81***</t>
+  </si>
+  <si>
+    <t>(0.53)</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>-0.50***</t>
+  </si>
+  <si>
+    <t>-0.61***</t>
+  </si>
+  <si>
+    <t>-0.48***</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>40529</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>1.85***</t>
+  </si>
+  <si>
+    <t>-0.60***</t>
+  </si>
+  <si>
+    <t>-0.47***</t>
+  </si>
+  <si>
+    <t>-0.09***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>1.95***</t>
+  </si>
+  <si>
+    <t>-0.32***</t>
+  </si>
+  <si>
+    <t>-0.58***</t>
+  </si>
+  <si>
+    <t>-0.45***</t>
+  </si>
+  <si>
+    <t>-0.12***</t>
   </si>
   <si>
     <t>0.15***</t>
   </si>
   <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>40529</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>3.82***</t>
-  </si>
-  <si>
-    <t>0.17***</t>
+    <t>0.96***</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>-0.17***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>-0.25***</t>
+  </si>
+  <si>
+    <t>-0.30***</t>
+  </si>
+  <si>
+    <t>-0.23***</t>
+  </si>
+  <si>
+    <t>44874</t>
+  </si>
+  <si>
+    <t>0.94***</t>
+  </si>
+  <si>
+    <t>-0.26***</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>0.07***</t>
+  </si>
+  <si>
+    <t>1.05***</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
   </si>
   <si>
     <t>-0.16***</t>
   </si>
   <si>
-    <t>1.95***</t>
-  </si>
-  <si>
-    <t>(0.53)</t>
-  </si>
-  <si>
-    <t>-0.12***</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>-0.48***</t>
-  </si>
-  <si>
-    <t>-0.58***</t>
-  </si>
-  <si>
-    <t>-0.45***</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>1.97***</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
-    <t>0.20***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>44874</t>
-  </si>
-  <si>
-    <t>1.99***</t>
-  </si>
-  <si>
-    <t>1.05***</t>
-  </si>
-  <si>
-    <t>(0.28)</t>
+    <t>-0.24***</t>
+  </si>
+  <si>
+    <t>-0.29***</t>
+  </si>
+  <si>
+    <t>0.03***</t>
   </si>
   <si>
     <t>0.19***</t>
-  </si>
-  <si>
-    <t>0.03***</t>
-  </si>
-  <si>
-    <t>-0.24***</t>
-  </si>
-  <si>
-    <t>-0.29***</t>
-  </si>
-  <si>
-    <t>-0.23***</t>
   </si>
   <si>
     <t>0.03</t>
@@ -549,19 +573,19 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -573,16 +597,16 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -593,19 +617,19 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -620,105 +644,177 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -726,19 +822,19 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -746,22 +842,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -769,22 +865,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -34,9 +34,6 @@
     <t>inciqr III</t>
   </si>
   <si>
-    <t>exp_vol</t>
-  </si>
-  <si>
     <t>age_gr=30-39</t>
   </si>
   <si>
@@ -55,133 +52,136 @@
     <t>HHinc_gr=low inc</t>
   </si>
   <si>
+    <t>expvol</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>1.81***</t>
-  </si>
-  <si>
-    <t>(0.53)</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
+    <t>-0.12***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>-0.15***</t>
+  </si>
+  <si>
+    <t>-0.16***</t>
   </si>
   <si>
     <t>(0.03)</t>
   </si>
   <si>
-    <t>-0.50***</t>
-  </si>
-  <si>
-    <t>-0.61***</t>
-  </si>
-  <si>
-    <t>-0.48***</t>
+    <t>-0.06</t>
   </si>
   <si>
     <t>(0.04)</t>
   </si>
   <si>
-    <t>40529</t>
+    <t>1.46***</t>
+  </si>
+  <si>
+    <t>(0.49)</t>
+  </si>
+  <si>
+    <t>20602</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>-0.17***</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>0.04**</t>
+  </si>
+  <si>
+    <t>1.42***</t>
+  </si>
+  <si>
+    <t>-0.14***</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.16***</t>
+  </si>
+  <si>
+    <t>1.60***</t>
+  </si>
+  <si>
+    <t>-0.46***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>-0.91***</t>
+  </si>
+  <si>
+    <t>-1.06***</t>
+  </si>
+  <si>
+    <t>-0.95***</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>3.58***</t>
+  </si>
+  <si>
+    <t>(0.96)</t>
+  </si>
+  <si>
+    <t>38815</t>
   </si>
   <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>1.85***</t>
-  </si>
-  <si>
-    <t>-0.60***</t>
-  </si>
-  <si>
-    <t>-0.47***</t>
-  </si>
-  <si>
-    <t>-0.09***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>1.95***</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>-0.58***</t>
-  </si>
-  <si>
-    <t>-0.45***</t>
-  </si>
-  <si>
-    <t>-0.12***</t>
-  </si>
-  <si>
-    <t>0.15***</t>
-  </si>
-  <si>
-    <t>0.96***</t>
-  </si>
-  <si>
-    <t>(0.29)</t>
-  </si>
-  <si>
-    <t>-0.17***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
+    <t>-0.89***</t>
+  </si>
+  <si>
+    <t>-1.01***</t>
+  </si>
+  <si>
+    <t>-0.90***</t>
   </si>
   <si>
     <t>-0.25***</t>
   </si>
   <si>
-    <t>-0.30***</t>
-  </si>
-  <si>
-    <t>-0.23***</t>
-  </si>
-  <si>
-    <t>44874</t>
-  </si>
-  <si>
-    <t>0.94***</t>
-  </si>
-  <si>
-    <t>-0.26***</t>
-  </si>
-  <si>
-    <t>-0.31***</t>
-  </si>
-  <si>
-    <t>0.07***</t>
-  </si>
-  <si>
-    <t>1.05***</t>
-  </si>
-  <si>
-    <t>(0.28)</t>
-  </si>
-  <si>
-    <t>-0.16***</t>
-  </si>
-  <si>
-    <t>-0.24***</t>
-  </si>
-  <si>
-    <t>-0.29***</t>
-  </si>
-  <si>
-    <t>0.03***</t>
-  </si>
-  <si>
-    <t>0.19***</t>
+    <t>3.71***</t>
+  </si>
+  <si>
+    <t>(0.95)</t>
   </si>
   <si>
     <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>-0.88***</t>
+  </si>
+  <si>
+    <t>-0.99***</t>
+  </si>
+  <si>
+    <t>-0.28***</t>
+  </si>
+  <si>
+    <t>3.84***</t>
   </si>
 </sst>
 </file>
@@ -573,19 +573,19 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -600,13 +600,13 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -620,37 +620,37 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -658,43 +658,43 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -705,136 +705,136 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -842,22 +842,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -865,22 +865,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>incvar I</t>
   </si>
@@ -61,127 +61,115 @@
     <t>R2</t>
   </si>
   <si>
+    <t>-0.07***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>-0.10***</t>
+  </si>
+  <si>
+    <t>-0.13***</t>
+  </si>
+  <si>
+    <t>-0.08***</t>
+  </si>
+  <si>
+    <t>0.41***</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
+    <t>40529</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.09***</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
     <t>-0.12***</t>
   </si>
   <si>
+    <t>-0.01**</t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>0.45***</t>
+  </si>
+  <si>
+    <t>-0.16***</t>
+  </si>
+  <si>
+    <t>-0.24***</t>
+  </si>
+  <si>
+    <t>-0.28***</t>
+  </si>
+  <si>
     <t>(0.02)</t>
   </si>
   <si>
+    <t>-0.22***</t>
+  </si>
+  <si>
+    <t>0.93***</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
+  </si>
+  <si>
+    <t>44874</t>
+  </si>
+  <si>
+    <t>-0.25***</t>
+  </si>
+  <si>
+    <t>-0.30***</t>
+  </si>
+  <si>
+    <t>-0.23***</t>
+  </si>
+  <si>
+    <t>0.07***</t>
+  </si>
+  <si>
+    <t>0.90***</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
     <t>-0.15***</t>
   </si>
   <si>
-    <t>-0.16***</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>1.46***</t>
-  </si>
-  <si>
-    <t>(0.49)</t>
-  </si>
-  <si>
-    <t>20602</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>-0.17***</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>0.04**</t>
-  </si>
-  <si>
-    <t>1.42***</t>
-  </si>
-  <si>
-    <t>-0.14***</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.16***</t>
-  </si>
-  <si>
-    <t>1.60***</t>
-  </si>
-  <si>
-    <t>-0.46***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>-0.91***</t>
-  </si>
-  <si>
-    <t>-1.06***</t>
-  </si>
-  <si>
-    <t>-0.95***</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
-  </si>
-  <si>
-    <t>3.58***</t>
-  </si>
-  <si>
-    <t>(0.96)</t>
-  </si>
-  <si>
-    <t>38815</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.89***</t>
-  </si>
-  <si>
-    <t>-1.01***</t>
-  </si>
-  <si>
-    <t>-0.90***</t>
-  </si>
-  <si>
-    <t>-0.25***</t>
-  </si>
-  <si>
-    <t>3.71***</t>
-  </si>
-  <si>
-    <t>(0.95)</t>
+    <t>-0.27***</t>
+  </si>
+  <si>
+    <t>-0.21***</t>
+  </si>
+  <si>
+    <t>0.03***</t>
+  </si>
+  <si>
+    <t>0.18***</t>
+  </si>
+  <si>
+    <t>1.01***</t>
   </si>
   <si>
     <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>-0.88***</t>
-  </si>
-  <si>
-    <t>-0.99***</t>
-  </si>
-  <si>
-    <t>-0.28***</t>
-  </si>
-  <si>
-    <t>3.84***</t>
   </si>
 </sst>
 </file>
@@ -579,13 +567,13 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -600,13 +588,13 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -620,16 +608,16 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -644,13 +632,13 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -661,40 +649,40 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -702,43 +690,43 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -746,31 +734,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -778,19 +766,19 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -798,43 +786,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -842,22 +830,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -865,22 +853,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>incvar I</t>
   </si>
@@ -67,106 +67,76 @@
     <t>(0.01)</t>
   </si>
   <si>
-    <t>-0.10***</t>
+    <t>-0.11***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>-0.16***</t>
   </si>
   <si>
     <t>-0.13***</t>
   </si>
   <si>
-    <t>-0.08***</t>
-  </si>
-  <si>
-    <t>0.41***</t>
-  </si>
-  <si>
-    <t>(0.16)</t>
-  </si>
-  <si>
-    <t>40529</t>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>41422</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>-0.09***</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
     <t>(0.00)</t>
   </si>
   <si>
-    <t>-0.12***</t>
-  </si>
-  <si>
-    <t>-0.01**</t>
+    <t>-0.15***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
   </si>
   <si>
     <t>0.06***</t>
   </si>
   <si>
-    <t>0.45***</t>
-  </si>
-  <si>
-    <t>-0.16***</t>
+    <t>-0.17***</t>
+  </si>
+  <si>
+    <t>-0.25***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>44421</t>
+  </si>
+  <si>
+    <t>-0.26***</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>0.08***</t>
   </si>
   <si>
     <t>-0.24***</t>
   </si>
   <si>
-    <t>-0.28***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>-0.22***</t>
-  </si>
-  <si>
-    <t>0.93***</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
-  </si>
-  <si>
-    <t>44874</t>
-  </si>
-  <si>
-    <t>-0.25***</t>
-  </si>
-  <si>
-    <t>-0.30***</t>
-  </si>
-  <si>
-    <t>-0.23***</t>
-  </si>
-  <si>
-    <t>0.07***</t>
-  </si>
-  <si>
-    <t>0.90***</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.15***</t>
-  </si>
-  <si>
-    <t>-0.27***</t>
-  </si>
-  <si>
-    <t>-0.21***</t>
-  </si>
-  <si>
-    <t>0.03***</t>
+    <t>0.04***</t>
   </si>
   <si>
     <t>0.18***</t>
-  </si>
-  <si>
-    <t>1.01***</t>
   </si>
   <si>
     <t>0.03</t>
@@ -567,13 +537,13 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -608,37 +578,37 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -646,43 +616,43 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -690,43 +660,43 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -734,25 +704,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -766,16 +736,16 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -786,43 +756,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -839,13 +809,13 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -865,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>incvar I</t>
   </si>
@@ -25,6 +25,9 @@
     <t>incvar III</t>
   </si>
   <si>
+    <t>incvar IIII</t>
+  </si>
+  <si>
     <t>inciqr I</t>
   </si>
   <si>
@@ -34,6 +37,27 @@
     <t>inciqr III</t>
   </si>
   <si>
+    <t>inciqr IIII</t>
+  </si>
+  <si>
+    <t>ExpVol</t>
+  </si>
+  <si>
+    <t>ExpGr</t>
+  </si>
+  <si>
+    <t>IdExpVol</t>
+  </si>
+  <si>
+    <t>IdExpGr</t>
+  </si>
+  <si>
+    <t>AgExpUEVol</t>
+  </si>
+  <si>
+    <t>AgExpUE</t>
+  </si>
+  <si>
     <t>age_gr=30-39</t>
   </si>
   <si>
@@ -46,13 +70,13 @@
     <t>age_gr=&gt;57</t>
   </si>
   <si>
-    <t>educ_gr=low educ</t>
-  </si>
-  <si>
-    <t>HHinc_gr=low inc</t>
-  </si>
-  <si>
-    <t>expvol</t>
+    <t>HHinc_gr=low income</t>
+  </si>
+  <si>
+    <t>educ_gr=high school</t>
+  </si>
+  <si>
+    <t>educ_gr=hs dropout</t>
   </si>
   <si>
     <t>N</t>
@@ -61,85 +85,226 @@
     <t>R2</t>
   </si>
   <si>
-    <t>-0.07***</t>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>2.33***</t>
+  </si>
+  <si>
+    <t>(0.52)</t>
+  </si>
+  <si>
+    <t>-0.29***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>-0.51***</t>
+  </si>
+  <si>
+    <t>-0.73***</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>41422</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>2.50***</t>
+  </si>
+  <si>
+    <t>(0.40)</t>
+  </si>
+  <si>
+    <t>-15.44**</t>
+  </si>
+  <si>
+    <t>(6.94)</t>
+  </si>
+  <si>
+    <t>-0.26***</t>
+  </si>
+  <si>
+    <t>-0.41***</t>
+  </si>
+  <si>
+    <t>-0.49***</t>
+  </si>
+  <si>
+    <t>-0.40***</t>
+  </si>
+  <si>
+    <t>-0.11***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>(0.10)</t>
+  </si>
+  <si>
+    <t>-0.03*</t>
   </si>
   <si>
     <t>(0.01)</t>
   </si>
   <si>
-    <t>-0.11***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
+    <t>0.10***</t>
+  </si>
+  <si>
+    <t>-0.27***</t>
+  </si>
+  <si>
+    <t>-0.59***</t>
+  </si>
+  <si>
+    <t>-0.57***</t>
+  </si>
+  <si>
+    <t>0.15***</t>
+  </si>
+  <si>
+    <t>-0.14***</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>2.09***</t>
+  </si>
+  <si>
+    <t>(0.50)</t>
+  </si>
+  <si>
+    <t>-11.24</t>
+  </si>
+  <si>
+    <t>(8.48)</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.23***</t>
+  </si>
+  <si>
+    <t>-0.37***</t>
+  </si>
+  <si>
+    <t>-0.48***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>0.75***</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
   </si>
   <si>
     <t>-0.16***</t>
   </si>
   <si>
+    <t>-0.35***</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>44421</t>
+  </si>
+  <si>
+    <t>1.25***</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>-5.32</t>
+  </si>
+  <si>
+    <t>(3.79)</t>
+  </si>
+  <si>
+    <t>-0.12***</t>
+  </si>
+  <si>
+    <t>-0.21***</t>
+  </si>
+  <si>
+    <t>-0.20***</t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>0.31***</t>
+  </si>
+  <si>
+    <t>-0.02***</t>
+  </si>
+  <si>
+    <t>0.03***</t>
+  </si>
+  <si>
     <t>-0.13***</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>41422</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>(0.00)</t>
-  </si>
-  <si>
-    <t>-0.15***</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.06***</t>
-  </si>
-  <si>
-    <t>-0.17***</t>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>0.19***</t>
+  </si>
+  <si>
+    <t>0.02***</t>
+  </si>
+  <si>
+    <t>0.24***</t>
+  </si>
+  <si>
+    <t>1.37***</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
+  </si>
+  <si>
+    <t>-10.47**</t>
+  </si>
+  <si>
+    <t>(4.62)</t>
   </si>
   <si>
     <t>-0.25***</t>
   </si>
   <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>-0.31***</t>
-  </si>
-  <si>
-    <t>44421</t>
-  </si>
-  <si>
-    <t>-0.26***</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>0.08***</t>
-  </si>
-  <si>
-    <t>-0.24***</t>
-  </si>
-  <si>
-    <t>0.04***</t>
-  </si>
-  <si>
-    <t>0.18***</t>
-  </si>
-  <si>
-    <t>0.03</t>
+    <t>0.25***</t>
   </si>
 </sst>
 </file>
@@ -497,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,323 +687,581 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
       <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>31</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
-  <si>
-    <t>incvar I</t>
-  </si>
-  <si>
-    <t>incvar II</t>
-  </si>
-  <si>
-    <t>incvar III</t>
-  </si>
-  <si>
-    <t>incvar IIII</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+  <si>
+    <t>rincvar I</t>
+  </si>
+  <si>
+    <t>rincvar II</t>
+  </si>
+  <si>
+    <t>rincvar III</t>
+  </si>
+  <si>
+    <t>rincvar IIII</t>
   </si>
   <si>
     <t>inciqr I</t>
@@ -46,265 +46,259 @@
     <t>ExpGr</t>
   </si>
   <si>
+    <t>AgExpUEVol</t>
+  </si>
+  <si>
+    <t>AgExpUE</t>
+  </si>
+  <si>
+    <t>age_gr=30-39</t>
+  </si>
+  <si>
+    <t>age_gr=40-48</t>
+  </si>
+  <si>
+    <t>age_gr=49-57</t>
+  </si>
+  <si>
+    <t>age_gr=&gt;57</t>
+  </si>
+  <si>
+    <t>HHinc_gr=low income</t>
+  </si>
+  <si>
+    <t>educ_gr=high school</t>
+  </si>
+  <si>
+    <t>educ_gr=hs dropout</t>
+  </si>
+  <si>
+    <t>IdExpGr</t>
+  </si>
+  <si>
     <t>IdExpVol</t>
   </si>
   <si>
-    <t>IdExpGr</t>
-  </si>
-  <si>
-    <t>AgExpUEVol</t>
-  </si>
-  <si>
-    <t>AgExpUE</t>
-  </si>
-  <si>
-    <t>age_gr=30-39</t>
-  </si>
-  <si>
-    <t>age_gr=40-48</t>
-  </si>
-  <si>
-    <t>age_gr=49-57</t>
-  </si>
-  <si>
-    <t>age_gr=&gt;57</t>
-  </si>
-  <si>
-    <t>HHinc_gr=low income</t>
-  </si>
-  <si>
-    <t>educ_gr=high school</t>
-  </si>
-  <si>
-    <t>educ_gr=hs dropout</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>2.33***</t>
-  </si>
-  <si>
-    <t>(0.52)</t>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>-1.58***</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>-0.32***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>-0.43***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>-0.49***</t>
+  </si>
+  <si>
+    <t>-0.46***</t>
+  </si>
+  <si>
+    <t>38924</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.27***</t>
+  </si>
+  <si>
+    <t>-0.50***</t>
+  </si>
+  <si>
+    <t>0.20***</t>
+  </si>
+  <si>
+    <t>(0.07)</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>(0.18)</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>(2.23)</t>
+  </si>
+  <si>
+    <t>0.63***</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>-0.03*</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>0.09***</t>
+  </si>
+  <si>
+    <t>-0.21***</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>0.40***</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>(0.10)</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>-0.22***</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.83</t>
+  </si>
+  <si>
+    <t>(2.45)</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>0.22***</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>-0.91***</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>-0.19***</t>
+  </si>
+  <si>
+    <t>-0.23***</t>
   </si>
   <si>
     <t>-0.29***</t>
   </si>
   <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>-0.51***</t>
-  </si>
-  <si>
-    <t>-0.73***</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>41422</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>2.50***</t>
-  </si>
-  <si>
-    <t>(0.40)</t>
-  </si>
-  <si>
-    <t>-15.44**</t>
-  </si>
-  <si>
-    <t>(6.94)</t>
-  </si>
-  <si>
-    <t>-0.26***</t>
-  </si>
-  <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.49***</t>
-  </si>
-  <si>
-    <t>-0.40***</t>
-  </si>
-  <si>
-    <t>-0.11***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
+    <t>44421</t>
+  </si>
+  <si>
+    <t>-0.15***</t>
+  </si>
+  <si>
+    <t>-0.25***</t>
+  </si>
+  <si>
+    <t>0.12***</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>3.37**</t>
+  </si>
+  <si>
+    <t>(1.31)</t>
+  </si>
+  <si>
+    <t>0.58***</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>-0.02***</t>
+  </si>
+  <si>
+    <t>0.03***</t>
+  </si>
+  <si>
+    <t>-0.13***</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>0.19***</t>
+  </si>
+  <si>
+    <t>0.02**</t>
+  </si>
+  <si>
+    <t>0.24***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>-0.28***</t>
   </si>
   <si>
     <t>0.06</t>
   </si>
   <si>
-    <t>(0.10)</t>
-  </si>
-  <si>
-    <t>-0.03*</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>0.10***</t>
-  </si>
-  <si>
-    <t>-0.27***</t>
-  </si>
-  <si>
-    <t>-0.59***</t>
-  </si>
-  <si>
-    <t>-0.57***</t>
-  </si>
-  <si>
-    <t>0.15***</t>
-  </si>
-  <si>
-    <t>-0.14***</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>2.09***</t>
-  </si>
-  <si>
-    <t>(0.50)</t>
-  </si>
-  <si>
-    <t>-11.24</t>
-  </si>
-  <si>
-    <t>(8.48)</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.23***</t>
-  </si>
-  <si>
-    <t>-0.37***</t>
-  </si>
-  <si>
-    <t>-0.48***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
-    <t>0.75***</t>
-  </si>
-  <si>
-    <t>(0.29)</t>
-  </si>
-  <si>
-    <t>-0.16***</t>
-  </si>
-  <si>
-    <t>-0.35***</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>44421</t>
-  </si>
-  <si>
-    <t>1.25***</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>-5.32</t>
-  </si>
-  <si>
-    <t>(3.79)</t>
-  </si>
-  <si>
-    <t>-0.12***</t>
-  </si>
-  <si>
-    <t>-0.21***</t>
-  </si>
-  <si>
-    <t>-0.20***</t>
-  </si>
-  <si>
-    <t>0.06***</t>
-  </si>
-  <si>
-    <t>0.31***</t>
-  </si>
-  <si>
-    <t>-0.02***</t>
-  </si>
-  <si>
-    <t>0.03***</t>
-  </si>
-  <si>
-    <t>-0.13***</t>
-  </si>
-  <si>
-    <t>-0.31***</t>
-  </si>
-  <si>
-    <t>0.19***</t>
-  </si>
-  <si>
-    <t>0.02***</t>
-  </si>
-  <si>
-    <t>0.24***</t>
-  </si>
-  <si>
-    <t>1.37***</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
-  </si>
-  <si>
-    <t>-10.47**</t>
-  </si>
-  <si>
-    <t>(4.62)</t>
-  </si>
-  <si>
-    <t>-0.25***</t>
-  </si>
-  <si>
-    <t>0.25***</t>
+    <t>2.74*</t>
+  </si>
+  <si>
+    <t>(1.43)</t>
+  </si>
+  <si>
+    <t>0.56***</t>
+  </si>
+  <si>
+    <t>(0.14)</t>
   </si>
 </sst>
 </file>
@@ -702,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -711,7 +705,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -722,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -731,135 +725,183 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
+      <c r="D6" t="s">
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="C7" t="s">
-        <v>35</v>
+      <c r="D7" t="s">
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
+      <c r="D8" t="s">
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="C9" t="s">
-        <v>37</v>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -867,55 +909,55 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -923,199 +965,175 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1123,43 +1141,31 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1167,43 +1173,31 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1211,28 +1205,28 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1240,28 +1234,28 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
